--- a/example.xlsx
+++ b/example.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/Jira-Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/JIRA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A805E9D-DC67-4A40-9A32-DC92A43A9B15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDB738A-131B-D240-9B3D-90088269EE2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{4096AEEB-E153-9D49-8C5E-7BB24B9348BE}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{4096AEEB-E153-9D49-8C5E-7BB24B9348BE}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="2" r:id="rId1"/>
     <sheet name="persons" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">persons!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>GROUP</t>
   </si>
@@ -57,23 +60,113 @@
     <t>com.pyxis.greenhopper.jira:gh-scrum-template</t>
   </si>
   <si>
-    <t>MSD1</t>
-  </si>
-  <si>
-    <t>MSD-Team-1</t>
-  </si>
-  <si>
-    <t>Project Space For: MSD-Team-1</t>
-  </si>
-  <si>
-    <t>grobalex</t>
+    <t>MSD401SP19</t>
+  </si>
+  <si>
+    <t>srashtibadjatya</t>
+  </si>
+  <si>
+    <t>jianqiaohan</t>
+  </si>
+  <si>
+    <t>yilin</t>
+  </si>
+  <si>
+    <t>maochili</t>
+  </si>
+  <si>
+    <t>liujunyi</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>vanderwela</t>
+  </si>
+  <si>
+    <t>yaowgpn</t>
+  </si>
+  <si>
+    <t>kenshinsyrup</t>
+  </si>
+  <si>
+    <t>yuanjieyue</t>
+  </si>
+  <si>
+    <t>zhaoyingu</t>
+  </si>
+  <si>
+    <t>zhengjiyang</t>
+  </si>
+  <si>
+    <t>timzyt</t>
+  </si>
+  <si>
+    <t>alicedaylight</t>
+  </si>
+  <si>
+    <t>zaricwong51</t>
+  </si>
+  <si>
+    <t>licong</t>
+  </si>
+  <si>
+    <t>nliu</t>
+  </si>
+  <si>
+    <t>cryst13</t>
+  </si>
+  <si>
+    <t>wanjia09</t>
+  </si>
+  <si>
+    <t>sunshinefield</t>
+  </si>
+  <si>
+    <t>MSD402SP19</t>
+  </si>
+  <si>
+    <t>MSD403SP19</t>
+  </si>
+  <si>
+    <t>MSD404SP19</t>
+  </si>
+  <si>
+    <t>MSD405SP19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>team-402-SP19</t>
+  </si>
+  <si>
+    <t>team-403-SP19</t>
+  </si>
+  <si>
+    <t>team-404-SP19</t>
+  </si>
+  <si>
+    <t>team-405-SP19</t>
+  </si>
+  <si>
+    <t>Project Space For: team-402-SP19</t>
+  </si>
+  <si>
+    <t>Project Space For: team-403-SP19</t>
+  </si>
+  <si>
+    <t>Project Space For: team-404-SP19</t>
+  </si>
+  <si>
+    <t>Project Space For: team-405-SP19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,37 +178,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFF2F2F2"/>
-      <name val="Monaco"/>
       <family val="2"/>
     </font>
     <font>
@@ -165,18 +227,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,25 +548,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2659E9D-933E-A949-951E-E804E746047B}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -523,11 +581,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -536,45 +594,86 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -593,9 +692,6 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -605,18 +701,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43C6505-343A-2A46-ABF9-645371E7090E}">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -624,89 +721,171 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -758,7 +937,9 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
@@ -1121,6 +1302,14 @@
       <c r="B124" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{44B3118F-7EB2-F347-8320-FD157F497A52}">
+    <sortState ref="A2:B21">
+      <sortCondition ref="A1:A21"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://github.ccs.neu.edu/wanjia09" xr:uid="{EE3FF00A-B247-C64B-9397-AAAE8D5C6140}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>